--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/58.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/58.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1331012157663886</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.524375700280529</v>
+        <v>-1.531567274980065</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2257947312514074</v>
+        <v>0.2260533376183486</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1138017065076057</v>
+        <v>0.1157412542596646</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1404468047005319</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.419328452203534</v>
+        <v>-1.427394653153527</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1991027726748821</v>
+        <v>0.203003215402686</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09036062513814763</v>
+        <v>0.09079671842202248</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1537033725749491</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.393755698068841</v>
+        <v>-1.4169003579894</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1882053199434246</v>
+        <v>0.195282839476409</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1314997747848041</v>
+        <v>0.1303134790685292</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1743400261803675</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.468101369040369</v>
+        <v>-1.496793867436628</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2142544221266574</v>
+        <v>0.222624363573671</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08698593403370063</v>
+        <v>0.08333494886268675</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2017669962832728</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.467882407517416</v>
+        <v>-1.496992091656571</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3192797130592892</v>
+        <v>0.3323991068161399</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1045559189687819</v>
+        <v>0.09513813379911516</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2325006815832693</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.420303105444977</v>
+        <v>-1.434167822268814</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3736230354368644</v>
+        <v>0.3873072157403838</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03698768655727858</v>
+        <v>0.02594934214949222</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2623500926971744</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.161740652792526</v>
+        <v>-1.161951685346681</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4028662922042268</v>
+        <v>0.4286909435784164</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01631877066982494</v>
+        <v>-0.02978520929174531</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2864039715317218</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5938770563096309</v>
+        <v>-0.5825898642657313</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3371564880947748</v>
+        <v>0.3664479285956003</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01648344925254691</v>
+        <v>-0.02395985690812461</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2990096962968761</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02159694820021808</v>
+        <v>0.02149265176449416</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2875565188202692</v>
+        <v>0.314946836571671</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05479988600721341</v>
+        <v>-0.05935294385913766</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.291453926730163</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8258334731947933</v>
+        <v>0.802760783914091</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09009957908849946</v>
+        <v>0.1272077629825281</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00833788260839205</v>
+        <v>-0.007059564876112673</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2545819319260768</v>
       </c>
       <c r="E12" t="n">
-        <v>1.631760698305314</v>
+        <v>1.572609981153611</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.294462726649272</v>
+        <v>-0.2601882342194149</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1159577760999101</v>
+        <v>0.09999188254467621</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.181396890332684</v>
       </c>
       <c r="E13" t="n">
-        <v>2.388125769223288</v>
+        <v>2.315774538864726</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6595612437506595</v>
+        <v>-0.6223103384182719</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2331570837404332</v>
+        <v>0.222839665572563</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.0706830128008066</v>
       </c>
       <c r="E14" t="n">
-        <v>3.099232286243848</v>
+        <v>3.004323749576437</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.205926966140216</v>
+        <v>-1.158600781148628</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067112321504466</v>
+        <v>0.3942255459767371</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.07270533855801521</v>
       </c>
       <c r="E15" t="n">
-        <v>3.822256653288066</v>
+        <v>3.707409809697761</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.789506388700879</v>
+        <v>-1.744142318526389</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5580612183234469</v>
+        <v>0.5394263118867635</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.238546568283526</v>
       </c>
       <c r="E16" t="n">
-        <v>4.443925622111645</v>
+        <v>4.317676921390212</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.299040221262974</v>
+        <v>-2.248782147578257</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7362019702226057</v>
+        <v>0.7210332429918815</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4140698155616636</v>
       </c>
       <c r="E17" t="n">
-        <v>5.059877194511389</v>
+        <v>4.927087704452508</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.83478478498764</v>
+        <v>-2.797312478449593</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9562412230109724</v>
+        <v>0.9327397594945162</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.591713979759069</v>
       </c>
       <c r="E18" t="n">
-        <v>5.423600950407385</v>
+        <v>5.288103412543744</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.360086896805703</v>
+        <v>-3.340266304573421</v>
       </c>
       <c r="G18" t="n">
-        <v>1.150307003780023</v>
+        <v>1.123594307900488</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7703633406481685</v>
       </c>
       <c r="E19" t="n">
-        <v>5.745978183626632</v>
+        <v>5.606025785140023</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.859414926683773</v>
+        <v>-3.845989352747194</v>
       </c>
       <c r="G19" t="n">
-        <v>1.376807146297182</v>
+        <v>1.358103928744703</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9503511886018067</v>
       </c>
       <c r="E20" t="n">
-        <v>6.101416777049684</v>
+        <v>5.955995829775351</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.354319201893389</v>
+        <v>-4.349837504760644</v>
       </c>
       <c r="G20" t="n">
-        <v>1.544983014179631</v>
+        <v>1.530422377863624</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.129604848327429</v>
       </c>
       <c r="E21" t="n">
-        <v>6.311847949417238</v>
+        <v>6.170020654770306</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.674259802009027</v>
+        <v>-4.659152066845977</v>
       </c>
       <c r="G21" t="n">
-        <v>1.693204107280913</v>
+        <v>1.673703113483248</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.300854301576584</v>
       </c>
       <c r="E22" t="n">
-        <v>6.44052779395619</v>
+        <v>6.30706129194612</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.95328417848536</v>
+        <v>-4.938474389572902</v>
       </c>
       <c r="G22" t="n">
-        <v>1.89130878277139</v>
+        <v>1.87160590522972</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.454365134730942</v>
       </c>
       <c r="E23" t="n">
-        <v>6.508635196245939</v>
+        <v>6.378304906355707</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.224939798305561</v>
+        <v>-5.198746754842616</v>
       </c>
       <c r="G23" t="n">
-        <v>1.995496652614847</v>
+        <v>1.976520190599184</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.581411458246599</v>
       </c>
       <c r="E24" t="n">
-        <v>6.595924603819413</v>
+        <v>6.469710058655878</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.346647334628267</v>
+        <v>-5.315932339267913</v>
       </c>
       <c r="G24" t="n">
-        <v>2.096286044447463</v>
+        <v>2.067582567479023</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.677478224714825</v>
       </c>
       <c r="E25" t="n">
-        <v>6.598497249233937</v>
+        <v>6.47639600911439</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.381112427269608</v>
+        <v>-5.340165097675789</v>
       </c>
       <c r="G25" t="n">
-        <v>2.154920158785961</v>
+        <v>2.129735924122357</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.741531058761809</v>
       </c>
       <c r="E26" t="n">
-        <v>6.64687493747224</v>
+        <v>6.533213779677532</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.378537952093055</v>
+        <v>-5.340365151657762</v>
       </c>
       <c r="G26" t="n">
-        <v>2.186182252993359</v>
+        <v>2.155797224719124</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.773626287915366</v>
       </c>
       <c r="E27" t="n">
-        <v>6.52620335141899</v>
+        <v>6.421956929190565</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.363508896697306</v>
+        <v>-5.331708547492678</v>
       </c>
       <c r="G27" t="n">
-        <v>2.193641582869988</v>
+        <v>2.164071408619889</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.774912613834382</v>
       </c>
       <c r="E28" t="n">
-        <v>6.42748890972867</v>
+        <v>6.333613578687669</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.295882416861173</v>
+        <v>-5.25344657585575</v>
       </c>
       <c r="G28" t="n">
-        <v>2.151252095835998</v>
+        <v>2.126664363594254</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.746240757902326</v>
       </c>
       <c r="E29" t="n">
-        <v>6.32204704297382</v>
+        <v>6.238574518995433</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.129216102653675</v>
+        <v>-5.097140984184172</v>
       </c>
       <c r="G29" t="n">
-        <v>2.061852972641651</v>
+        <v>2.044082933724597</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.689555889913416</v>
       </c>
       <c r="E30" t="n">
-        <v>6.147747571496819</v>
+        <v>6.084952578301547</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.934177498405212</v>
+        <v>-4.89731938198865</v>
       </c>
       <c r="G30" t="n">
-        <v>2.008304376905879</v>
+        <v>1.992400695259673</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.60772946080158</v>
       </c>
       <c r="E31" t="n">
-        <v>5.976545277216347</v>
+        <v>5.919681152681772</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.797230789013617</v>
+        <v>-4.764655840549518</v>
       </c>
       <c r="G31" t="n">
-        <v>1.909035517320395</v>
+        <v>1.885889027637806</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.504416938225517</v>
       </c>
       <c r="E32" t="n">
-        <v>5.783410235400014</v>
+        <v>5.734409208230074</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.547109333567021</v>
+        <v>-4.515005853786048</v>
       </c>
       <c r="G32" t="n">
-        <v>1.840935434078768</v>
+        <v>1.818291519033819</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.384780049685303</v>
       </c>
       <c r="E33" t="n">
-        <v>5.517726348925852</v>
+        <v>5.471172323511027</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.392032427098751</v>
+        <v>-4.365949169357621</v>
       </c>
       <c r="G33" t="n">
-        <v>1.744597853265735</v>
+        <v>1.723198176401353</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.25464184912846</v>
       </c>
       <c r="E34" t="n">
-        <v>5.30170952300064</v>
+        <v>5.256732752455885</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.164649119441662</v>
+        <v>-4.151291551660541</v>
       </c>
       <c r="G34" t="n">
-        <v>1.596981801475786</v>
+        <v>1.576468949275396</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.120132160828692</v>
       </c>
       <c r="E35" t="n">
-        <v>5.03541571584973</v>
+        <v>4.998979054620801</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.03389493468109</v>
+        <v>-4.013416238038597</v>
       </c>
       <c r="G35" t="n">
-        <v>1.530059475060959</v>
+        <v>1.511859442066797</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9868324096050708</v>
       </c>
       <c r="E36" t="n">
-        <v>4.718192312349005</v>
+        <v>4.707857816402186</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.867077360145759</v>
+        <v>-3.852589304390285</v>
       </c>
       <c r="G36" t="n">
-        <v>1.481545774511742</v>
+        <v>1.469544975276047</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8599193289460644</v>
       </c>
       <c r="E37" t="n">
-        <v>4.397505779245704</v>
+        <v>4.391993316169255</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.725795944504515</v>
+        <v>-3.713406015877055</v>
       </c>
       <c r="G37" t="n">
-        <v>1.380432514799772</v>
+        <v>1.376124645059901</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7432261917490111</v>
       </c>
       <c r="E38" t="n">
-        <v>4.116170108364835</v>
+        <v>4.111755502506532</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.622693123544993</v>
+        <v>-3.618521876036713</v>
       </c>
       <c r="G38" t="n">
-        <v>1.26568996764519</v>
+        <v>1.267229407433302</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6392957958405687</v>
       </c>
       <c r="E39" t="n">
-        <v>3.851885379923134</v>
+        <v>3.848662559067197</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.547903735281131</v>
+        <v>-3.562402769608786</v>
       </c>
       <c r="G39" t="n">
-        <v>1.174222603435991</v>
+        <v>1.179614912139121</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5489675776974993</v>
       </c>
       <c r="E40" t="n">
-        <v>3.507855962679331</v>
+        <v>3.509721100108826</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.470021134305142</v>
+        <v>-3.480534032049909</v>
       </c>
       <c r="G40" t="n">
-        <v>1.090315206015084</v>
+        <v>1.094033892381217</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4722796384153135</v>
       </c>
       <c r="E41" t="n">
-        <v>3.28161686621182</v>
+        <v>3.295211998096534</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.377035372571178</v>
+        <v>-3.391923536290598</v>
       </c>
       <c r="G41" t="n">
-        <v>1.026838931423883</v>
+        <v>1.032414216330037</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4075197685088364</v>
       </c>
       <c r="E42" t="n">
-        <v>2.976200307171584</v>
+        <v>3.000164090561015</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.28600105204247</v>
+        <v>-3.307986557716869</v>
       </c>
       <c r="G42" t="n">
-        <v>1.011695210940906</v>
+        <v>1.017646206983936</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3527410876618533</v>
       </c>
       <c r="E43" t="n">
-        <v>2.62976658262004</v>
+        <v>2.667376731231033</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.189573202969278</v>
+        <v>-3.212609906930053</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9129606418682534</v>
+        <v>0.9267045943980942</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3051349762354381</v>
       </c>
       <c r="E44" t="n">
-        <v>2.402685795618618</v>
+        <v>2.43937130448366</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.157749676778934</v>
+        <v>-3.178822131200241</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9037593785388321</v>
+        <v>0.9107204032225578</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.262663013736862</v>
       </c>
       <c r="E45" t="n">
-        <v>2.134439632381438</v>
+        <v>2.179153527114515</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.064969763273373</v>
+        <v>-3.087362695959839</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8292142635060078</v>
+        <v>0.8400531638524975</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2234882906446855</v>
       </c>
       <c r="E46" t="n">
-        <v>1.986320396033172</v>
+        <v>2.029688805753342</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.978770893869923</v>
+        <v>-2.999200186937599</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7895255052286582</v>
+        <v>0.8012097556331207</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1861968221903438</v>
       </c>
       <c r="E47" t="n">
-        <v>1.757434853749251</v>
+        <v>1.81043086135189</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.908002712627861</v>
+        <v>-2.923269027166865</v>
       </c>
       <c r="G47" t="n">
-        <v>0.717529248703964</v>
+        <v>0.7269683810973169</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1496385740050365</v>
       </c>
       <c r="E48" t="n">
-        <v>1.632240095957238</v>
+        <v>1.684997624575268</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.83795637250673</v>
+        <v>-2.853894819631511</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6550453150538323</v>
+        <v>0.6570147489190519</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1130244704421115</v>
       </c>
       <c r="E49" t="n">
-        <v>1.440500552649305</v>
+        <v>1.501146795300394</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.799334365493013</v>
+        <v>-2.81821811956581</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5781001621580044</v>
+        <v>0.5747175420847597</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.07591632817529437</v>
       </c>
       <c r="E50" t="n">
-        <v>1.343807388081728</v>
+        <v>1.408068020663227</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.715695333169875</v>
+        <v>-2.73468826304381</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5747785341524344</v>
+        <v>0.5648654933932482</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.03814452349575345</v>
       </c>
       <c r="E51" t="n">
-        <v>1.251630076204794</v>
+        <v>1.320186380112629</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.641874803901028</v>
+        <v>-2.667392055254136</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4820461944596597</v>
+        <v>0.4746984800668759</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.0004770719722920266</v>
       </c>
       <c r="E52" t="n">
-        <v>1.204324018595538</v>
+        <v>1.269678848871123</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.562654646880929</v>
+        <v>-2.584739874585976</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4083659469464641</v>
+        <v>0.3976002370811841</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.03981274655129437</v>
       </c>
       <c r="E53" t="n">
-        <v>1.172755744208412</v>
+        <v>1.233521531312144</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.513548103433913</v>
+        <v>-2.544015470999509</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4000411396295298</v>
+        <v>0.3897005444759433</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.07989977997355059</v>
       </c>
       <c r="E54" t="n">
-        <v>1.100998576589003</v>
+        <v>1.154267218734148</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.459496323139823</v>
+        <v>-2.485094693942939</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3444621179608631</v>
+        <v>0.3355774034626741</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1205603239436311</v>
       </c>
       <c r="E55" t="n">
-        <v>1.101584710359358</v>
+        <v>1.132891938696836</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.436975612071578</v>
+        <v>-2.463510821034179</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3175383895271735</v>
+        <v>0.3059675843685861</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1623354743657406</v>
       </c>
       <c r="E56" t="n">
-        <v>1.084850316751421</v>
+        <v>1.119744488588855</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.401734395369075</v>
+        <v>-2.431307619222558</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2668771582751263</v>
+        <v>0.2605461816504815</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2055069065773281</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9928541513154815</v>
+        <v>1.011113956535965</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.364116317789285</v>
+        <v>-2.395920631478313</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2345531921695095</v>
+        <v>0.2257386185491466</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2500792378148856</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9992485596905081</v>
+        <v>1.018440323705063</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.39504905483124</v>
+        <v>-2.421404947114877</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2283710361899912</v>
+        <v>0.2169179457220162</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2959096283214591</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9851752499952234</v>
+        <v>0.9989381100660434</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.321396253748497</v>
+        <v>-2.353270708315351</v>
       </c>
       <c r="G59" t="n">
-        <v>0.218138396996189</v>
+        <v>0.2119123267279449</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.342527287913206</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9987032906054953</v>
+        <v>0.9969430595324005</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.338192249344786</v>
+        <v>-2.373535322800305</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2028141399928941</v>
+        <v>0.1927138535859462</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3894307423032655</v>
       </c>
       <c r="E61" t="n">
-        <v>1.110293767702643</v>
+        <v>1.104508670083688</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.36647854057033</v>
+        <v>-2.397274045460017</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2226585191315689</v>
+        <v>0.207936863756901</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4360126630399995</v>
       </c>
       <c r="E62" t="n">
-        <v>1.143903446594845</v>
+        <v>1.128421220136272</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.353582377781169</v>
+        <v>-2.385385471628843</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1923979146753907</v>
+        <v>0.1746187269481848</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4813942569400825</v>
       </c>
       <c r="E63" t="n">
-        <v>1.218070410808086</v>
+        <v>1.19167487368046</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.363059325256481</v>
+        <v>-2.396537871203182</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1637609190607159</v>
+        <v>0.1432785628941626</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5249769720709595</v>
       </c>
       <c r="E64" t="n">
-        <v>1.318579849050075</v>
+        <v>1.281444218725593</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.430708067197315</v>
+        <v>-2.461934176084785</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1872257873365672</v>
+        <v>0.1679437550618541</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.565951821037285</v>
       </c>
       <c r="E65" t="n">
-        <v>1.369492977541619</v>
+        <v>1.322967008477924</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.559620291514107</v>
+        <v>-2.59693035915214</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1563906376028924</v>
+        <v>0.1344645991944765</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6033225599427678</v>
       </c>
       <c r="E66" t="n">
-        <v>1.424614558702725</v>
+        <v>1.368085890540361</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.646252814518725</v>
+        <v>-2.678299266716421</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1613450232601168</v>
+        <v>0.1388407800501438</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6359794201724567</v>
       </c>
       <c r="E67" t="n">
-        <v>1.486234234753904</v>
+        <v>1.414917429863107</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.693830896749811</v>
+        <v>-2.725691933061776</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1199966708213358</v>
+        <v>0.09859394435356966</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6630139241138231</v>
       </c>
       <c r="E68" t="n">
-        <v>1.538370254202328</v>
+        <v>1.452507451091767</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.788899232634531</v>
+        <v>-2.821705645995455</v>
       </c>
       <c r="G68" t="n">
-        <v>0.08457918704325279</v>
+        <v>0.05822207491826221</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6835366073036815</v>
       </c>
       <c r="E69" t="n">
-        <v>1.535777481405472</v>
+        <v>1.445017015260624</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.845583430569465</v>
+        <v>-2.866899548301133</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1172593468240905</v>
+        <v>0.09063996880809824</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6968794403344244</v>
       </c>
       <c r="E70" t="n">
-        <v>1.558942268708363</v>
+        <v>1.459480674189027</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.88199264536794</v>
+        <v>-2.907314112183812</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1159949812611918</v>
+        <v>0.08979888819486267</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7025223285936195</v>
       </c>
       <c r="E71" t="n">
-        <v>1.555863389132139</v>
+        <v>1.451165625602921</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.955122744430709</v>
+        <v>-2.97716039832297</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1128795064443627</v>
+        <v>0.08666816536111489</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7002484594607448</v>
       </c>
       <c r="E72" t="n">
-        <v>1.544438355015295</v>
+        <v>1.440870164579414</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.03099260717343</v>
+        <v>-3.050581429548548</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06922565384747392</v>
+        <v>0.0410772046948743</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6899682916186211</v>
       </c>
       <c r="E73" t="n">
-        <v>1.58389168391142</v>
+        <v>1.481695814998222</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.093943130141274</v>
+        <v>-3.109211884362985</v>
       </c>
       <c r="G73" t="n">
-        <v>0.01168207767900165</v>
+        <v>-0.0185468109019856</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6715639441038952</v>
       </c>
       <c r="E74" t="n">
-        <v>1.563672813477222</v>
+        <v>1.463640943125126</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.138257526831081</v>
+        <v>-3.155786037160143</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.01187061917430135</v>
+        <v>-0.04262891890270592</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6448599048306001</v>
       </c>
       <c r="E75" t="n">
-        <v>1.533554930459402</v>
+        <v>1.443705685805616</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.147642681244541</v>
+        <v>-3.164985775687873</v>
       </c>
       <c r="G75" t="n">
-        <v>0.002029473048786887</v>
+        <v>-0.02898987272926585</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6101617210644736</v>
       </c>
       <c r="E76" t="n">
-        <v>1.540913013503691</v>
+        <v>1.45440125479307</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.220559613030787</v>
+        <v>-3.230065836698582</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.01239271127359769</v>
+        <v>-0.04120658388452945</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5679071354052428</v>
       </c>
       <c r="E77" t="n">
-        <v>1.423282491944707</v>
+        <v>1.34117558036156</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.236494095671168</v>
+        <v>-3.248732459010457</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.0135844962759634</v>
+        <v>-0.05393196888420092</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.518375094966158</v>
       </c>
       <c r="E78" t="n">
-        <v>1.457472205400496</v>
+        <v>1.380048874694098</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.239917275469417</v>
+        <v>-3.238559897003314</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01582099939141397</v>
+        <v>-0.02376224260885824</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4623487351639844</v>
       </c>
       <c r="E79" t="n">
-        <v>1.491341710500993</v>
+        <v>1.399216851802259</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.18870650568762</v>
+        <v>-3.194699891217684</v>
       </c>
       <c r="G79" t="n">
-        <v>0.05316522258734407</v>
+        <v>0.01444806794805409</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4004574719442343</v>
       </c>
       <c r="E80" t="n">
-        <v>1.52634200853618</v>
+        <v>1.4356663213654</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.138073940707379</v>
+        <v>-3.148964989271732</v>
       </c>
       <c r="G80" t="n">
-        <v>0.04298198696835849</v>
+        <v>0.005125430403960029</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3341909470787141</v>
       </c>
       <c r="E81" t="n">
-        <v>1.656465535316994</v>
+        <v>1.566806585914353</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.02397242018406</v>
+        <v>-3.035718882497551</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01963178377973584</v>
+        <v>-0.01880236766554303</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2654723494505772</v>
       </c>
       <c r="E82" t="n">
-        <v>1.735422816525414</v>
+        <v>1.63944569883234</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.906133915674305</v>
+        <v>-2.918507376443493</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04004826851320033</v>
+        <v>0.00244299926762207</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1963728834782595</v>
       </c>
       <c r="E83" t="n">
-        <v>1.912088780228196</v>
+        <v>1.816428821287031</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.769307360656029</v>
+        <v>-2.782160828997818</v>
       </c>
       <c r="G83" t="n">
-        <v>0.08461273268047394</v>
+        <v>0.04797296786618785</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1297697964145609</v>
       </c>
       <c r="E84" t="n">
-        <v>2.109091938976465</v>
+        <v>2.013347201061232</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.679397733855245</v>
+        <v>-2.700350948784247</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04615967369421587</v>
+        <v>0.01023900535781575</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.06791893525443091</v>
       </c>
       <c r="E85" t="n">
-        <v>2.251403510640736</v>
+        <v>2.166093905583985</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.46464710325496</v>
+        <v>-2.48807110684547</v>
       </c>
       <c r="G85" t="n">
-        <v>0.09628356483004802</v>
+        <v>0.05517735089993591</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.01277838394016692</v>
       </c>
       <c r="E86" t="n">
-        <v>2.406943041942319</v>
+        <v>2.319861007398938</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.27887868337239</v>
+        <v>-2.30395313231418</v>
       </c>
       <c r="G86" t="n">
-        <v>0.09239349075374891</v>
+        <v>0.05765484868888652</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.03361657226422827</v>
       </c>
       <c r="E87" t="n">
-        <v>2.521991159355951</v>
+        <v>2.432963477853745</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.018734706405132</v>
+        <v>-2.040241729308622</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1049718848703241</v>
+        <v>0.07368478391517898</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.06994672806974307</v>
       </c>
       <c r="E88" t="n">
-        <v>2.62267320514946</v>
+        <v>2.527236477175985</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.721390447521656</v>
+        <v>-1.737219718845298</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1096487566196282</v>
+        <v>0.08640894907349696</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.09464956591953122</v>
       </c>
       <c r="E89" t="n">
-        <v>2.656864138446603</v>
+        <v>2.55986845322336</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.515419015142483</v>
+        <v>-1.538952804454807</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06170289222046338</v>
+        <v>0.03685899329448473</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1063342279221541</v>
       </c>
       <c r="E90" t="n">
-        <v>2.719549345920062</v>
+        <v>2.622479250374254</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.287980814624486</v>
+        <v>-1.317756532142649</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05196550861618063</v>
+        <v>0.03553546542594145</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1043808509091662</v>
       </c>
       <c r="E91" t="n">
-        <v>2.719909199119343</v>
+        <v>2.627881927728889</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9332863244270669</v>
+        <v>-0.9563730418833345</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05063161209613263</v>
+        <v>0.04183716585810238</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08850389747257643</v>
       </c>
       <c r="E92" t="n">
-        <v>2.659813714839357</v>
+        <v>2.558261922160805</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7234827604358862</v>
+        <v>-0.7499490483620147</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04110831064938845</v>
+        <v>0.03101717305259184</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.06061679523271254</v>
       </c>
       <c r="E93" t="n">
-        <v>2.58147672295919</v>
+        <v>2.487692880019701</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3951008581540551</v>
+        <v>-0.4368383399846015</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.04617011835190514</v>
+        <v>-0.04741862597720842</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.02465308166178331</v>
       </c>
       <c r="E94" t="n">
-        <v>2.528101344695614</v>
+        <v>2.437657427381998</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1348897899123544</v>
+        <v>-0.1749810958363577</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.09498268003272897</v>
+        <v>-0.08984836777586382</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.01390076378374439</v>
       </c>
       <c r="E95" t="n">
-        <v>2.375057608803284</v>
+        <v>2.292129134068557</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0821401142569373</v>
+        <v>0.03586848211544589</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1437818234586643</v>
+        <v>-0.1344732140901355</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.04962196839808879</v>
       </c>
       <c r="E96" t="n">
-        <v>2.211062137239266</v>
+        <v>2.135357562999944</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2465972957732534</v>
+        <v>0.2021261494695223</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1968461421770989</v>
+        <v>-0.1889214428241114</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.07716180675649993</v>
       </c>
       <c r="E97" t="n">
-        <v>2.037876380918008</v>
+        <v>1.965625177550434</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3740688874515672</v>
+        <v>0.3309840908460844</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2144643108456433</v>
+        <v>-0.2062840547290983</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.09361518314091317</v>
       </c>
       <c r="E98" t="n">
-        <v>1.814993068013966</v>
+        <v>1.759658624536675</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4657320361980026</v>
+        <v>0.4273265510245309</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3522411222782924</v>
+        <v>-0.3373474692727815</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.09963925243920092</v>
       </c>
       <c r="E99" t="n">
-        <v>1.647281349766522</v>
+        <v>1.598892073035361</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5205297494797552</v>
+        <v>0.4794046280086638</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3360623664068733</v>
+        <v>-0.3243524993339874</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.0989180063976044</v>
       </c>
       <c r="E100" t="n">
-        <v>1.459462986489402</v>
+        <v>1.424330945588037</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5360357628447211</v>
+        <v>0.5038563479394935</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.4405612957954716</v>
+        <v>-0.4167817084504183</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.09614091264606413</v>
       </c>
       <c r="E101" t="n">
-        <v>1.309991556000786</v>
+        <v>1.294242794206474</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5316016395247627</v>
+        <v>0.5112754230514569</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.4436548134679377</v>
+        <v>-0.4188511693066245</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.09723960768114583</v>
       </c>
       <c r="E102" t="n">
-        <v>1.084081206778042</v>
+        <v>1.088900799965705</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4855715359712635</v>
+        <v>0.4677996672921786</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4791790333644516</v>
+        <v>-0.454802333676862</v>
       </c>
     </row>
   </sheetData>
